--- a/resources/datos.xlsx
+++ b/resources/datos.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="16">
   <si>
     <t>persona</t>
   </si>
@@ -444,16 +444,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.94623651E9</v>
+        <v>6.5037178E7</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -461,16 +461,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>6.5037178E7</v>
+        <v>-4.7648109E8</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
